--- a/tests/OSA_modelling_config_example.xlsx
+++ b/tests/OSA_modelling_config_example.xlsx
@@ -768,7 +768,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E19"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="D1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E1">
         <v>1</v>
@@ -858,7 +858,7 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1112,7 +1112,7 @@
   <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H64"/>
+      <selection activeCell="B4" sqref="A1:H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2795,7 +2795,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G59"/>
+      <selection activeCell="D11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4159,6 +4159,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4167,10 +4168,18 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.6328125" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="22.36328125" customWidth="1"/>
+    <col min="6" max="6" width="39.81640625" customWidth="1"/>
+    <col min="7" max="7" width="91.26953125" customWidth="1"/>
+    <col min="9" max="9" width="44.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -4200,7 +4209,7 @@
         <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -4264,7 +4273,7 @@
         <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -4452,7 +4461,7 @@
         <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -5324,7 +5333,7 @@
         <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
